--- a/branches/ARVTReatMent-Branch2-FIG44/StructureDefinition-art-regimen-line.xlsx
+++ b/branches/ARVTReatMent-Branch2-FIG44/StructureDefinition-art-regimen-line.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-09T10:39:24+00:00</t>
+    <t>2023-02-09T10:40:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/ARVTReatMent-Branch2-FIG44/StructureDefinition-art-regimen-line.xlsx
+++ b/branches/ARVTReatMent-Branch2-FIG44/StructureDefinition-art-regimen-line.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-09T10:40:09+00:00</t>
+    <t>2023-02-09T13:08:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/ARVTReatMent-Branch2-FIG44/StructureDefinition-art-regimen-line.xlsx
+++ b/branches/ARVTReatMent-Branch2-FIG44/StructureDefinition-art-regimen-line.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-09T13:08:40+00:00</t>
+    <t>2023-02-09T13:39:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/ARVTReatMent-Branch2-FIG44/StructureDefinition-art-regimen-line.xlsx
+++ b/branches/ARVTReatMent-Branch2-FIG44/StructureDefinition-art-regimen-line.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-09T13:39:21+00:00</t>
+    <t>2023-02-09T15:03:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/ARVTReatMent-Branch2-FIG44/StructureDefinition-art-regimen-line.xlsx
+++ b/branches/ARVTReatMent-Branch2-FIG44/StructureDefinition-art-regimen-line.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-09T15:03:43+00:00</t>
+    <t>2023-02-09T15:04:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/ARVTReatMent-Branch2-FIG44/StructureDefinition-art-regimen-line.xlsx
+++ b/branches/ARVTReatMent-Branch2-FIG44/StructureDefinition-art-regimen-line.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-09T15:04:10+00:00</t>
+    <t>2023-02-10T13:19:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/ARVTReatMent-Branch2-FIG44/StructureDefinition-art-regimen-line.xlsx
+++ b/branches/ARVTReatMent-Branch2-FIG44/StructureDefinition-art-regimen-line.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-10T13:19:16+00:00</t>
+    <t>2023-02-10T13:19:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
